--- a/populasi 30 iterasi 30.xlsx
+++ b/populasi 30 iterasi 30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>individu 30</t>
   </si>
@@ -115,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +129,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,7 +159,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -168,7 +175,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -182,16 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -235,40 +241,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,13 +282,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,13 +306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +336,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,37 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,66 +476,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -567,6 +504,62 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -583,153 +576,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8171,15 +8167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19685</xdr:colOff>
+      <xdr:colOff>10160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>13970</xdr:colOff>
+      <xdr:colOff>4445</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8187,7 +8183,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="791210" y="6299835"/>
+        <a:off x="781685" y="6309360"/>
         <a:ext cx="13881735" cy="4141470"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8488,103 +8484,45 @@
   <sheetPr/>
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
@@ -11439,6 +11377,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AD1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/populasi 30 iterasi 30.xlsx
+++ b/populasi 30 iterasi 30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>individu 30</t>
   </si>
@@ -109,16 +109,19 @@
   <si>
     <t>Iterasi 30</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,25 +148,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +177,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,15 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -219,16 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,45 +278,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,7 +292,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,67 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,61 +370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +392,90 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -480,6 +483,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,7 +529,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,39 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,145 +574,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,32 +809,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="id-ID" altLang="en-US"/>
-              <a:t>Populasi 30 Iterasi 30</a:t>
-            </a:r>
-            <a:endParaRPr lang="id-ID" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -841,6 +818,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -873,94 +869,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>33.25</c:v>
+                  <c:v>30.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.2666666666667</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.3166666666667</c:v>
+                  <c:v>14.8666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.15</c:v>
+                  <c:v>12.5166666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.9166666666667</c:v>
+                  <c:v>10.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.15</c:v>
+                  <c:v>8.96666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.2</c:v>
+                  <c:v>8.13333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>7.28333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.75</c:v>
+                  <c:v>6.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.53333333333333</c:v>
+                  <c:v>6.41666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.01666666666667</c:v>
+                  <c:v>6.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.51666666666667</c:v>
+                  <c:v>5.98333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9</c:v>
+                  <c:v>5.51666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.81666666666667</c:v>
+                  <c:v>5.01666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.73333333333333</c:v>
+                  <c:v>5.01724137931035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.73333333333333</c:v>
+                  <c:v>4.72413793103448</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.71666666666667</c:v>
+                  <c:v>4.68965517241379</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.68333333333333</c:v>
+                  <c:v>4.58620689655172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.61666666666667</c:v>
+                  <c:v>4.44827586206897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.58333333333333</c:v>
+                  <c:v>4.41379310344828</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.58333333333333</c:v>
+                  <c:v>4.37931034482759</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.58333333333333</c:v>
+                  <c:v>4.37931034482759</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.53333333333333</c:v>
+                  <c:v>4.22413793103448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.5</c:v>
+                  <c:v>4.1551724137931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.41666666666667</c:v>
+                  <c:v>4.08620689655172</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.41666666666667</c:v>
+                  <c:v>4.06896551724138</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.36666666666667</c:v>
+                  <c:v>3.98275862068966</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.25</c:v>
+                  <c:v>3.89655172413793</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>3.89655172413793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,11 +973,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="424417844"/>
-        <c:axId val="671069027"/>
+        <c:axId val="740107647"/>
+        <c:axId val="153735633"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="424417844"/>
+        <c:axId val="740107647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1018,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671069027"/>
+        <c:crossAx val="153735633"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671069027"/>
+        <c:axId val="153735633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1076,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424417844"/>
+        <c:crossAx val="740107647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1688,25 +1684,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>92710</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>176530</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>930275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>52705</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="864235" y="6844030"/>
-        <a:ext cx="9151620" cy="4307840"/>
+        <a:off x="17589500" y="6499225"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2006,17 +2002,16 @@
   <sheetPr/>
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.4444444444444"/>
-    <col min="5" max="5" width="12.4444444444444"/>
-    <col min="10" max="12" width="12.4444444444444"/>
-    <col min="15" max="24" width="12.4444444444444"/>
-    <col min="26" max="28" width="12.4444444444444"/>
+    <col min="3" max="8" width="12.4444444444444"/>
+    <col min="10" max="10" width="12.4444444444444"/>
+    <col min="12" max="12" width="12.4444444444444"/>
+    <col min="14" max="30" width="12.4444444444444"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -2205,91 +2200,91 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3">
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>7</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD3">
         <v>4</v>
@@ -2297,562 +2292,562 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>34</v>
+        <v>30.5</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="D4">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="E4">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="F4">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
-        <v>35.5</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="H5">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="O5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="R5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="S5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="V5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="W5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="X5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA5">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB5">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AC5">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AD5">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>17.5</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="S6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="W6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="Z6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AA6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AC6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="D7">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H7">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I7">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8">
-        <v>37</v>
+        <v>33.5</v>
       </c>
       <c r="B8">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="D8">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="E8">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="R8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="S8">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>16.5</v>
       </c>
       <c r="D9">
+        <v>16.5</v>
+      </c>
+      <c r="E9">
+        <v>13.5</v>
+      </c>
+      <c r="F9">
+        <v>13.5</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
         <v>12.5</v>
       </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
       <c r="J9">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C10">
         <v>14.5</v>
@@ -2861,684 +2856,684 @@
         <v>14.5</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="W10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Y10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AA10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AD10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="C11">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="D11">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="E11">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="X11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Y11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AB11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AC11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AD11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="D12">
         <v>11.5</v>
       </c>
       <c r="E12">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="F12">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="G12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="K12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="O12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="R12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="S12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="T12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="U12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="V12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="W12">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="X12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Y12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Z12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AA12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AB12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AC12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AD12">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="B13">
         <v>18</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="D13">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="E13">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="F13">
         <v>8.5</v>
       </c>
       <c r="G13">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H13">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I13">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="O13">
-        <v>6.5</v>
-      </c>
-      <c r="P13">
-        <v>6.5</v>
-      </c>
-      <c r="Q13">
-        <v>6.5</v>
-      </c>
-      <c r="R13">
-        <v>6.5</v>
-      </c>
-      <c r="S13">
-        <v>6.5</v>
-      </c>
-      <c r="T13">
-        <v>6.5</v>
-      </c>
-      <c r="U13">
-        <v>6.5</v>
-      </c>
-      <c r="V13">
-        <v>6.5</v>
-      </c>
-      <c r="W13">
-        <v>6.5</v>
-      </c>
-      <c r="X13">
-        <v>6.5</v>
-      </c>
-      <c r="Y13">
-        <v>6.5</v>
-      </c>
-      <c r="Z13">
-        <v>6.5</v>
-      </c>
-      <c r="AA13">
-        <v>6.5</v>
-      </c>
-      <c r="AB13">
-        <v>6.5</v>
-      </c>
-      <c r="AC13">
-        <v>6.5</v>
-      </c>
-      <c r="AD13">
-        <v>6.5</v>
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>24.5</v>
+        <v>18.5</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E14">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="O14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="R14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="S14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="T14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="U14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="V14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="W14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="X14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AC14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="AD14">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15">
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="I15">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>6</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Z15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AB15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AC15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AD15">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="B16">
-        <v>23.5</v>
+        <v>17.5</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="D16">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="G16">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="K16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Z16">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AA16">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AB16">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="AD16">
-        <v>7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17">
-        <v>35</v>
+        <v>31.5</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>5.5</v>
@@ -3574,381 +3569,381 @@
         <v>5.5</v>
       </c>
       <c r="AB17">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="AD17">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18">
-        <v>36.5</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="E18">
         <v>12</v>
       </c>
       <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
         <v>11.5</v>
       </c>
-      <c r="G18">
-        <v>11.5</v>
-      </c>
-      <c r="H18">
-        <v>6.5</v>
-      </c>
-      <c r="I18">
-        <v>5.5</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P18">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="W18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="X18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Z18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AB18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AD18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19">
-        <v>31.5</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>25.5</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20">
-        <v>38.5</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>13.5</v>
+        <v>25.5</v>
       </c>
       <c r="C20">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="G20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="I20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="J20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="K20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="N20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="O20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="P20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="R20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="S20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="T20">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="V20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="W20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="X20">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z20">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA20">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB20">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC20">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="AD20">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21">
-        <v>33.5</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="E21">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="F21">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="G21">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="H21">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="I21">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="J21">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="K21">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="L21">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="M21">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="N21">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="O21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="P21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="R21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="S21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="T21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="U21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="V21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="W21">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="X21">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y21">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z21">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA21">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB21">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC21">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="AD21">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -3956,61 +3951,61 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F22">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G22">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="H22">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="I22">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K22">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
         <v>6</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>6</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>6</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
       <c r="R22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <v>5</v>
@@ -4034,197 +4029,197 @@
         <v>5</v>
       </c>
       <c r="AB22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AC22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AD22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23">
-        <v>37.5</v>
+        <v>33.5</v>
       </c>
       <c r="B23">
-        <v>28.5</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="D23">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="I23">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="J23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="K23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="L23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="M23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="O23">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="P23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="W23">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="X23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y23">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Z23">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AA23">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AB23">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="AC23">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="AD23">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -4232,141 +4227,141 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="R25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="S25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="T25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="V25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="W25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="X25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AA25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AB25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AC25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="AD25">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26">
-        <v>33</v>
+        <v>30.5</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>20.5</v>
       </c>
       <c r="C26">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="K26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P26">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -4378,209 +4373,209 @@
         <v>8</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L27">
         <v>8</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="W27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28">
-        <v>32.5</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="E28">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
         <v>13</v>
       </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
       <c r="I28">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z28">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA28">
         <v>8</v>
@@ -4592,7 +4587,7 @@
         <v>8</v>
       </c>
       <c r="AD28">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -4600,361 +4595,361 @@
         <v>27.5</v>
       </c>
       <c r="B29">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>16.5</v>
       </c>
       <c r="D29">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="I29">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="J29">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="K29">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N29">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="O29">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="P29">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="R29">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="S29">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="W29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="X29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Y29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Z29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="AA29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="AB29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="AC29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="AD29">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>10.5</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="K30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="R30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="S30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="T30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="U30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="V30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="W30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="X30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AD30">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31">
-        <v>37</v>
+        <v>24.5</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="R32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="S32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="T32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="W32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Y32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Z32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AA32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AB32">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AC32">
         <v>5</v>
@@ -4966,123 +4961,123 @@
     <row r="33" spans="1:30">
       <c r="A33">
         <f>AVERAGE(A3:A32)</f>
-        <v>33.25</v>
+        <v>30.15</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:AD33" si="0">AVERAGE(B3:B32)</f>
-        <v>21.2666666666667</v>
+        <v>19.25</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>17.3166666666667</v>
+        <v>14.8666666666667</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>14.15</v>
+        <v>12.5166666666667</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>12.9166666666667</v>
+        <v>10.3333333333333</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>11.15</v>
+        <v>8.96666666666667</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>10.2</v>
+        <v>8.13333333333333</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7.28333333333333</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>6.65</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>8.53333333333333</v>
+        <v>6.41666666666667</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>8.01666666666667</v>
+        <v>6.05</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>7.51666666666667</v>
+        <v>5.98333333333333</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>6.9</v>
+        <v>5.51666666666667</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>6.81666666666667</v>
+        <v>5.01666666666667</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>6.73333333333333</v>
+        <v>5.01724137931035</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>6.73333333333333</v>
+        <v>4.72413793103448</v>
       </c>
       <c r="R33">
         <f t="shared" si="0"/>
-        <v>6.71666666666667</v>
+        <v>4.68965517241379</v>
       </c>
       <c r="S33">
         <f t="shared" si="0"/>
-        <v>6.68333333333333</v>
+        <v>4.58620689655172</v>
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>6.61666666666667</v>
+        <v>4.44827586206897</v>
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>6.58333333333333</v>
+        <v>4.41379310344828</v>
       </c>
       <c r="V33">
         <f t="shared" si="0"/>
-        <v>6.58333333333333</v>
+        <v>4.37931034482759</v>
       </c>
       <c r="W33">
         <f t="shared" si="0"/>
-        <v>6.58333333333333</v>
+        <v>4.37931034482759</v>
       </c>
       <c r="X33">
         <f t="shared" si="0"/>
-        <v>6.53333333333333</v>
+        <v>4.22413793103448</v>
       </c>
       <c r="Y33">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>4.1551724137931</v>
       </c>
       <c r="Z33">
         <f t="shared" si="0"/>
-        <v>6.41666666666667</v>
+        <v>4.08620689655172</v>
       </c>
       <c r="AA33">
         <f t="shared" si="0"/>
-        <v>6.41666666666667</v>
+        <v>4.06896551724138</v>
       </c>
       <c r="AB33">
         <f t="shared" si="0"/>
-        <v>6.36666666666667</v>
+        <v>3.98275862068966</v>
       </c>
       <c r="AC33">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>3.89655172413793</v>
       </c>
       <c r="AD33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3.89655172413793</v>
       </c>
     </row>
   </sheetData>
